--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-05_end.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-05_end.xlsx
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Elsewhere, Exusiai leads everyone to the rooftop of a building. Her chosen route is…
+    <t xml:space="preserve">Elsewhere, Exusiai leads everyone to the rooftop of a building. Her chosen route is...
 </t>
   </si>
   <si>
